--- a/REGULAR/CENRO/DOCTORA, ZENAIDA.xlsx
+++ b/REGULAR/CENRO/DOCTORA, ZENAIDA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="PERMANENT" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="263">
   <si>
     <t>PERIOD</t>
   </si>
@@ -813,6 +813,18 @@
   </si>
   <si>
     <t>9/14,20/2023</t>
+  </si>
+  <si>
+    <t>10/24-26/2023</t>
+  </si>
+  <si>
+    <t>11/23,24/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>12/18-22/2023</t>
   </si>
 </sst>
 </file>
@@ -1783,8 +1795,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K452" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="A8:K452"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K453" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="A8:K453"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -1814,8 +1826,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K97" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K97"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K98" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K98"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2144,12 +2156,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K452"/>
+  <dimension ref="A2:K453"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4425" topLeftCell="A393" activePane="bottomLeft"/>
       <selection activeCell="I8" sqref="I8"/>
-      <selection pane="bottomLeft" activeCell="H410" sqref="H410"/>
+      <selection pane="bottomLeft" activeCell="I408" sqref="I408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2310,7 +2322,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>159.66</v>
+        <v>165.16</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2320,7 +2332,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>33.25</v>
+        <v>30.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10815,15 +10827,11 @@
       <c r="A405" s="40">
         <v>45170</v>
       </c>
-      <c r="B405" s="20" t="s">
-        <v>57</v>
-      </c>
+      <c r="B405" s="20"/>
       <c r="C405" s="13">
         <v>1.25</v>
       </c>
-      <c r="D405" s="39">
-        <v>3</v>
-      </c>
+      <c r="D405" s="39"/>
       <c r="E405" s="9"/>
       <c r="F405" s="20"/>
       <c r="G405" s="13" t="s">
@@ -10832,22 +10840,22 @@
       <c r="H405" s="39"/>
       <c r="I405" s="9"/>
       <c r="J405" s="11"/>
-      <c r="K405" s="20" t="s">
-        <v>256</v>
-      </c>
+      <c r="K405" s="20"/>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>45200</v>
       </c>
       <c r="B406" s="20"/>
-      <c r="C406" s="13"/>
+      <c r="C406" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D406" s="39"/>
       <c r="E406" s="9"/>
       <c r="F406" s="20"/>
-      <c r="G406" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G406" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H406" s="39"/>
       <c r="I406" s="9"/>
@@ -10859,13 +10867,15 @@
         <v>45231</v>
       </c>
       <c r="B407" s="20"/>
-      <c r="C407" s="13"/>
+      <c r="C407" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D407" s="39"/>
       <c r="E407" s="9"/>
       <c r="F407" s="20"/>
-      <c r="G407" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G407" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H407" s="39"/>
       <c r="I407" s="9"/>
@@ -10876,7 +10886,9 @@
       <c r="A408" s="40">
         <v>45261</v>
       </c>
-      <c r="B408" s="20"/>
+      <c r="B408" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C408" s="13"/>
       <c r="D408" s="39"/>
       <c r="E408" s="9"/>
@@ -10885,14 +10897,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H408" s="39"/>
+      <c r="H408" s="39">
+        <v>5</v>
+      </c>
       <c r="I408" s="9"/>
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A409" s="40">
-        <v>45292</v>
+      <c r="A409" s="48" t="s">
+        <v>261</v>
       </c>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -10910,7 +10924,7 @@
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -10928,7 +10942,7 @@
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -10946,7 +10960,7 @@
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -10964,7 +10978,7 @@
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -10982,7 +10996,7 @@
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -11000,7 +11014,7 @@
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -11018,7 +11032,7 @@
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -11036,7 +11050,7 @@
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -11054,7 +11068,7 @@
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -11072,7 +11086,7 @@
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -11090,7 +11104,7 @@
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -11108,7 +11122,7 @@
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -11126,7 +11140,7 @@
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -11144,7 +11158,7 @@
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -11162,7 +11176,7 @@
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -11180,7 +11194,7 @@
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -11198,7 +11212,7 @@
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -11216,7 +11230,7 @@
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -11234,7 +11248,7 @@
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -11252,7 +11266,7 @@
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -11270,7 +11284,7 @@
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -11288,7 +11302,7 @@
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -11306,7 +11320,7 @@
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -11324,7 +11338,7 @@
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -11342,7 +11356,7 @@
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -11360,7 +11374,7 @@
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -11378,7 +11392,7 @@
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -11396,7 +11410,7 @@
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -11414,7 +11428,7 @@
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -11432,7 +11446,7 @@
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -11450,7 +11464,7 @@
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -11468,7 +11482,7 @@
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -11486,7 +11500,7 @@
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -11504,7 +11518,7 @@
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -11522,7 +11536,7 @@
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -11540,7 +11554,7 @@
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -11557,7 +11571,9 @@
       <c r="K445" s="20"/>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A446" s="40"/>
+      <c r="A446" s="40">
+        <v>46388</v>
+      </c>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
       <c r="D446" s="39"/>
@@ -11653,20 +11669,36 @@
       <c r="K451" s="20"/>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A452" s="41"/>
-      <c r="B452" s="15"/>
-      <c r="C452" s="42"/>
-      <c r="D452" s="43"/>
+      <c r="A452" s="40"/>
+      <c r="B452" s="20"/>
+      <c r="C452" s="13"/>
+      <c r="D452" s="39"/>
       <c r="E452" s="9"/>
-      <c r="F452" s="15"/>
-      <c r="G452" s="42" t="str">
+      <c r="F452" s="20"/>
+      <c r="G452" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H452" s="43"/>
+      <c r="H452" s="39"/>
       <c r="I452" s="9"/>
-      <c r="J452" s="12"/>
-      <c r="K452" s="15"/>
+      <c r="J452" s="11"/>
+      <c r="K452" s="20"/>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A453" s="41"/>
+      <c r="B453" s="15"/>
+      <c r="C453" s="42"/>
+      <c r="D453" s="43"/>
+      <c r="E453" s="9"/>
+      <c r="F453" s="15"/>
+      <c r="G453" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H453" s="43"/>
+      <c r="I453" s="9"/>
+      <c r="J453" s="12"/>
+      <c r="K453" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -11712,12 +11744,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K97"/>
+  <dimension ref="A2:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A46" activePane="bottomLeft"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="4425" topLeftCell="A55" activePane="bottomLeft"/>
       <selection activeCell="G62" sqref="G62"/>
-      <selection pane="bottomLeft" activeCell="K59" sqref="K59"/>
+      <selection pane="bottomLeft" activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11878,7 +11910,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>22.75</v>
+        <v>9.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -11888,7 +11920,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>4.25</v>
+        <v>1.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12949,9 +12981,13 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
-      <c r="B60" s="20"/>
+      <c r="B60" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C60" s="13"/>
-      <c r="D60" s="39"/>
+      <c r="D60" s="39">
+        <v>3</v>
+      </c>
       <c r="E60" s="9"/>
       <c r="F60" s="20"/>
       <c r="G60" s="13" t="str">
@@ -12961,11 +12997,17 @@
       <c r="H60" s="39"/>
       <c r="I60" s="9"/>
       <c r="J60" s="11"/>
-      <c r="K60" s="20"/>
+      <c r="K60" s="20" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
-      <c r="B61" s="20"/>
+      <c r="A61" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C61" s="13"/>
       <c r="D61" s="39"/>
       <c r="E61" s="9"/>
@@ -12974,14 +13016,20 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H61" s="39"/>
+      <c r="H61" s="39">
+        <v>1</v>
+      </c>
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="20"/>
+      <c r="K61" s="49">
+        <v>45203</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
-      <c r="B62" s="20"/>
+      <c r="B62" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C62" s="13"/>
       <c r="D62" s="39"/>
       <c r="E62" s="9"/>
@@ -12990,16 +13038,24 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H62" s="39"/>
+      <c r="H62" s="39">
+        <v>1</v>
+      </c>
       <c r="I62" s="9"/>
       <c r="J62" s="11"/>
-      <c r="K62" s="20"/>
+      <c r="K62" s="49">
+        <v>45210</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
-      <c r="B63" s="20"/>
+      <c r="B63" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C63" s="13"/>
-      <c r="D63" s="39"/>
+      <c r="D63" s="39">
+        <v>3</v>
+      </c>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
       <c r="G63" s="13" t="str">
@@ -13009,11 +13065,15 @@
       <c r="H63" s="39"/>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="20"/>
+      <c r="K63" s="20" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
-      <c r="B64" s="20"/>
+      <c r="B64" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C64" s="13"/>
       <c r="D64" s="39"/>
       <c r="E64" s="9"/>
@@ -13022,16 +13082,26 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H64" s="39"/>
+      <c r="H64" s="39">
+        <v>1</v>
+      </c>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="20"/>
+      <c r="K64" s="49">
+        <v>45226</v>
+      </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="40"/>
-      <c r="B65" s="20"/>
+      <c r="A65" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>112</v>
+      </c>
       <c r="C65" s="13"/>
-      <c r="D65" s="39"/>
+      <c r="D65" s="39">
+        <v>2</v>
+      </c>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
       <c r="G65" s="13" t="str">
@@ -13041,13 +13111,19 @@
       <c r="H65" s="39"/>
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
-      <c r="K65" s="20"/>
+      <c r="K65" s="20" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
-      <c r="B66" s="20"/>
+      <c r="B66" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="C66" s="13"/>
-      <c r="D66" s="39"/>
+      <c r="D66" s="39">
+        <v>5</v>
+      </c>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
       <c r="G66" s="13" t="str">
@@ -13057,7 +13133,9 @@
       <c r="H66" s="39"/>
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="20"/>
+      <c r="K66" s="20" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
@@ -13540,20 +13618,36 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="41"/>
-      <c r="B97" s="15"/>
-      <c r="C97" s="42"/>
-      <c r="D97" s="43"/>
+      <c r="A97" s="40"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="39"/>
       <c r="E97" s="9"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="42" t="str">
+      <c r="F97" s="20"/>
+      <c r="G97" s="13" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H97" s="43"/>
+      <c r="H97" s="39"/>
       <c r="I97" s="9"/>
-      <c r="J97" s="12"/>
-      <c r="K97" s="15"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="20"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="41"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="42"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H98" s="43"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
